--- a/data/Measurements.xlsx
+++ b/data/Measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amelia\Google Drive\Stier Lab\People\Amelia Ritger\Projects\Cnidaria\1. Intraspecific variation\Clonal differences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amelia\github\Ritger-2019-Corynactis-measurements\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF660A47-B3CF-4E45-8389-8E37F60DBEB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92ADCE0-E828-4A74-8C4B-27E50E5265D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{3D5131ED-60B0-4786-9312-C0C09B3193C9}"/>
+    <workbookView xWindow="-25320" yWindow="-2895" windowWidth="25440" windowHeight="15390" xr2:uid="{3D5131ED-60B0-4786-9312-C0C09B3193C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>Purple</t>
+  </si>
+  <si>
+    <t>GWP RP</t>
+  </si>
+  <si>
+    <t>GWP Purple</t>
+  </si>
+  <si>
+    <t>Basal disk diameter (mm)_a</t>
+  </si>
+  <si>
+    <t>Basal disk diameter (mm)_b</t>
+  </si>
+  <si>
+    <t>Dry mass plus vial (g)_day 7</t>
   </si>
 </sst>
 </file>
@@ -458,22 +473,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF3A5C9-6405-4F9A-BB12-C87548FEAFC2}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N37" sqref="N37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="5" max="7" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -490,37 +505,46 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -536,26 +560,26 @@
       <c r="E2">
         <v>6.44</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.98</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.13900000000000001</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.24299999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="M2">
-        <v>0.14799999999999999</v>
       </c>
       <c r="N2">
         <v>0.14899999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -571,26 +595,26 @@
       <c r="E3">
         <v>6.24</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.91</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.217</v>
-      </c>
-      <c r="L3">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="M3">
-        <v>0.14799999999999999</v>
       </c>
       <c r="N3">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -606,26 +630,26 @@
       <c r="E4">
         <v>9.51</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.05</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.156</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.40600000000000003</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.17899999999999999</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.17899999999999999</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -641,26 +665,26 @@
       <c r="E5">
         <v>8.4499999999999993</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.38700000000000001</v>
-      </c>
-      <c r="L5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="M5">
-        <v>0.16600000000000001</v>
       </c>
       <c r="N5">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -676,26 +700,26 @@
       <c r="E6">
         <v>5.79</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.65</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.108</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.153</v>
-      </c>
-      <c r="K6">
-        <v>0.112</v>
-      </c>
-      <c r="L6">
-        <v>0.112</v>
       </c>
       <c r="M6">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>0.112</v>
+      </c>
+      <c r="O6">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -711,26 +735,26 @@
       <c r="E7">
         <v>7.14</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.76</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.191</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.155</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.154</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.154</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -746,26 +770,26 @@
       <c r="E8">
         <v>7.15</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.97</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.14599999999999999</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.20799999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.155</v>
-      </c>
-      <c r="L8">
-        <v>0.155</v>
       </c>
       <c r="M8">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>0.155</v>
+      </c>
+      <c r="O8">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -781,26 +805,26 @@
       <c r="E9">
         <v>7.74</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.17399999999999999</v>
-      </c>
-      <c r="K9">
-        <v>0.111</v>
-      </c>
-      <c r="L9">
-        <v>0.11</v>
       </c>
       <c r="M9">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>0.11</v>
+      </c>
+      <c r="O9">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -816,26 +840,26 @@
       <c r="E10">
         <v>9.24</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1.23</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.129</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.129</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -851,26 +875,26 @@
       <c r="E11">
         <v>6.99</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.87</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.106</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.22600000000000001</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.11600000000000001</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -886,26 +910,26 @@
       <c r="E12">
         <v>5.35</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.14199999999999999</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.17299999999999999</v>
-      </c>
-      <c r="K12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="L12">
-        <v>0.14499999999999999</v>
       </c>
       <c r="M12">
         <v>0.14499999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -921,23 +945,23 @@
       <c r="E13">
         <v>6.49</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.89</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.13700000000000001</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.214</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>0.14399999999999999</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -953,23 +977,23 @@
       <c r="E14">
         <v>8.42</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1.06</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.224</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -985,23 +1009,23 @@
       <c r="E15">
         <v>6.6</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.84</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.11700000000000001</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.189</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>0.126</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>0.127</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1017,23 +1041,23 @@
       <c r="E16">
         <v>8.48</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>0.98</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.245</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>0.159</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>0.159</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1049,23 +1073,23 @@
       <c r="E17">
         <v>6.39</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>0.65</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.112</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.17899999999999999</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>0.12</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1081,23 +1105,23 @@
       <c r="E18">
         <v>10.33</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>0.95</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.123</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.22700000000000001</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>0.13100000000000001</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1113,23 +1137,23 @@
       <c r="E19">
         <v>5.01</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>0.72</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.122</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.14799999999999999</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>0.126</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1145,23 +1169,23 @@
       <c r="E20">
         <v>4.68</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>0.94</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.151</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>0.108</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>0.109</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1177,23 +1201,23 @@
       <c r="E21">
         <v>8.56</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>0.97</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0.107</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.107</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1209,23 +1233,23 @@
       <c r="E22">
         <v>7.7</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>1.07</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.22500000000000001</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0.14299999999999999</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1241,23 +1265,23 @@
       <c r="E23">
         <v>6.12</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.153</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.20599999999999999</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0.158</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.158</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -1273,23 +1297,23 @@
       <c r="E24">
         <v>8.19</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>0.65</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.104</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>0.111</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>0.11</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>27</v>
       </c>
@@ -1306,23 +1330,23 @@
         <f>3.13+8.67</f>
         <v>11.8</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>0.99</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.22600000000000001</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>0.113</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.114</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29</v>
       </c>
@@ -1338,23 +1362,23 @@
       <c r="E26">
         <v>7.52</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>1.37</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.19800000000000001</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.33</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.21099999999999999</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
@@ -1371,23 +1395,23 @@
         <f>8.68+1.47</f>
         <v>10.15</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>0.23</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.38700000000000001</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.249</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>0.248</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31</v>
       </c>
@@ -1403,23 +1427,23 @@
       <c r="E28">
         <v>6.97</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>0.82</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>0.224</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.32900000000000001</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.23599999999999999</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32</v>
       </c>
@@ -1435,23 +1459,23 @@
       <c r="E29">
         <v>4.92</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>0.54</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>0.19500000000000001</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.245</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>0.2</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33</v>
       </c>
@@ -1467,23 +1491,23 @@
       <c r="E30">
         <v>6.82</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>0.63</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.18099999999999999</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>0.29099999999999998</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.189</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>0.189</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
@@ -1499,23 +1523,23 @@
       <c r="E31">
         <v>5.01</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>0.59</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.184</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>0.25700000000000001</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>0.192</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>0.192</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
@@ -1531,17 +1555,17 @@
       <c r="E32">
         <v>8.83</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>0.91</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>0.20899999999999999</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
@@ -1557,23 +1581,23 @@
       <c r="E33">
         <v>6.89</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>0.19400000000000001</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>0.24</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>0.2</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
@@ -1589,23 +1613,23 @@
       <c r="E34">
         <v>6.98</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>0.81</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>0.19500000000000001</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>0.26400000000000001</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>38</v>
       </c>
@@ -1621,17 +1645,23 @@
       <c r="E35">
         <v>10.51</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>2</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>0.21</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>0.222</v>
+      </c>
+      <c r="P35">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
@@ -1647,17 +1677,23 @@
       <c r="E36">
         <v>7.51</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>0.68</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>0.192</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="P36">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
@@ -1673,17 +1709,23 @@
       <c r="E37">
         <v>3.83</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>0.48</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>0.17499999999999999</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="P37">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -1699,17 +1741,23 @@
       <c r="E38">
         <v>5.59</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>0.73</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>0.189</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="P38">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>42</v>
       </c>
@@ -1726,17 +1774,23 @@
         <f>5.54+7.14</f>
         <v>12.68</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>1.05</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>0.20300000000000001</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>0.36099999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>0.221</v>
+      </c>
+      <c r="P39">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -1752,17 +1806,23 @@
       <c r="E40">
         <v>9.17</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>1.22</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>0.16800000000000001</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>0.27400000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>0.18</v>
+      </c>
+      <c r="P40">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>44</v>
       </c>
@@ -1778,17 +1838,23 @@
       <c r="E41">
         <v>7.74</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>1.17</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>0.20799999999999999</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>0.26100000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>0.214</v>
+      </c>
+      <c r="P41">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45</v>
       </c>
@@ -1804,17 +1870,23 @@
       <c r="E42">
         <v>8.2799999999999994</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>0.92</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>0.18</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>0.187</v>
+      </c>
+      <c r="P42">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>46</v>
       </c>
@@ -1831,17 +1903,23 @@
         <f>8.65+2.22</f>
         <v>10.870000000000001</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>1.58</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>0.23799999999999999</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>0.36099999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>0.249</v>
+      </c>
+      <c r="P43">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>47</v>
       </c>
@@ -1857,17 +1935,23 @@
       <c r="E44">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>1.07</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>0.129</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="P44">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>48</v>
       </c>
@@ -1883,17 +1967,23 @@
       <c r="E45">
         <v>6.62</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>0.71</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>0.14199999999999999</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P45">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>49</v>
       </c>
@@ -1909,17 +1999,23 @@
       <c r="E46">
         <v>7.63</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>0.67</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>0.188</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>0.251</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="P46">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -1935,17 +2031,23 @@
       <c r="E47">
         <v>11.15</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>0.99</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>0.153</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P47">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>51</v>
       </c>
@@ -1961,17 +2063,23 @@
       <c r="E48">
         <v>9.1</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>1.49</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>0.156</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P48">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>52</v>
       </c>
@@ -1987,17 +2095,23 @@
       <c r="E49">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>0.62</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>0.13600000000000001</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P49">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>53</v>
       </c>
@@ -2013,17 +2127,23 @@
       <c r="E50">
         <v>8.15</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>0.98</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>0.17699999999999999</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>0.189</v>
+      </c>
+      <c r="P50">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>54</v>
       </c>
@@ -2039,17 +2159,23 @@
       <c r="E51">
         <v>7.5</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>0.82</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>0.158</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="P51">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>55</v>
       </c>
@@ -2065,17 +2191,23 @@
       <c r="E52">
         <v>3.09</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>0.54</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>0.186</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>0.188</v>
+      </c>
+      <c r="P52">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
       </c>
@@ -2091,17 +2223,23 @@
       <c r="E53">
         <v>5.49</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>0.66</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>0.154</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <v>0.159</v>
+      </c>
+      <c r="P53">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>57</v>
       </c>
@@ -2117,17 +2255,23 @@
       <c r="E54">
         <v>6.99</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>0.96</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>0.16900000000000001</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="P54">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>58</v>
       </c>
@@ -2143,17 +2287,23 @@
       <c r="E55">
         <v>6.56</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>1.03</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>0.154</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>0.158</v>
+      </c>
+      <c r="P55">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>59</v>
       </c>
@@ -2169,14 +2319,626 @@
       <c r="E56">
         <v>7.03</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>0.71</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>0.14099999999999999</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>0.182</v>
+      </c>
+      <c r="N56">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P56">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D57">
+        <v>9.32</v>
+      </c>
+      <c r="E57">
+        <v>9.61</v>
+      </c>
+      <c r="F57">
+        <v>7.48</v>
+      </c>
+      <c r="G57">
+        <v>5.94</v>
+      </c>
+      <c r="J57">
+        <v>1.24</v>
+      </c>
+      <c r="K57">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="L57">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="O57">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="R57">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D58">
+        <v>6.02</v>
+      </c>
+      <c r="E58">
+        <v>6.26</v>
+      </c>
+      <c r="F58">
+        <v>5.74</v>
+      </c>
+      <c r="G58">
+        <v>5.61</v>
+      </c>
+      <c r="J58">
+        <v>0.77</v>
+      </c>
+      <c r="K58">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="L58">
+        <v>0.192</v>
+      </c>
+      <c r="O58">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="R58">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D59">
+        <f>5.92+4.88</f>
+        <v>10.8</v>
+      </c>
+      <c r="E59">
+        <v>10.77</v>
+      </c>
+      <c r="F59">
+        <v>11.63</v>
+      </c>
+      <c r="G59">
+        <v>7.55</v>
+      </c>
+      <c r="J59">
+        <v>1.02</v>
+      </c>
+      <c r="K59">
+        <v>0.129</v>
+      </c>
+      <c r="L59">
+        <v>0.313</v>
+      </c>
+      <c r="O59">
+        <v>0.151</v>
+      </c>
+      <c r="R59">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D60">
+        <v>8.85</v>
+      </c>
+      <c r="E60">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F60">
+        <v>5.15</v>
+      </c>
+      <c r="G60">
+        <v>6.37</v>
+      </c>
+      <c r="J60">
+        <v>0.91</v>
+      </c>
+      <c r="K60">
+        <v>0.126</v>
+      </c>
+      <c r="L60">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O60">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="R60">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D61">
+        <v>7.49</v>
+      </c>
+      <c r="E61">
+        <v>6.58</v>
+      </c>
+      <c r="F61">
+        <v>5.38</v>
+      </c>
+      <c r="G61">
+        <v>6.16</v>
+      </c>
+      <c r="J61">
+        <v>0.66</v>
+      </c>
+      <c r="K61">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L61">
+        <v>0.183</v>
+      </c>
+      <c r="O61">
+        <v>0.151</v>
+      </c>
+      <c r="R61">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D62">
+        <f>8.57+1.83</f>
+        <v>10.4</v>
+      </c>
+      <c r="E62">
+        <v>10.92</v>
+      </c>
+      <c r="F62">
+        <v>10.83</v>
+      </c>
+      <c r="G62">
+        <v>7.21</v>
+      </c>
+      <c r="J62">
+        <v>1.28</v>
+      </c>
+      <c r="K62">
+        <v>0.123</v>
+      </c>
+      <c r="L62">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="O62">
+        <v>0.152</v>
+      </c>
+      <c r="R62">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D63">
+        <f>8.02+2.74</f>
+        <v>10.76</v>
+      </c>
+      <c r="E63">
+        <v>11.12</v>
+      </c>
+      <c r="F63">
+        <v>6.6</v>
+      </c>
+      <c r="G63">
+        <v>9.36</v>
+      </c>
+      <c r="J63">
+        <v>0.94</v>
+      </c>
+      <c r="K63">
+        <v>0.127</v>
+      </c>
+      <c r="L63">
+        <v>0.22</v>
+      </c>
+      <c r="O63">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R63">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D64">
+        <v>8.39</v>
+      </c>
+      <c r="E64">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F64">
+        <v>6.24</v>
+      </c>
+      <c r="G64">
+        <v>6.74</v>
+      </c>
+      <c r="J64">
+        <v>0.78</v>
+      </c>
+      <c r="K64">
+        <v>0.114</v>
+      </c>
+      <c r="L64">
+        <v>0.156</v>
+      </c>
+      <c r="O64">
+        <v>0.121</v>
+      </c>
+      <c r="R64">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D65">
+        <v>11.26</v>
+      </c>
+      <c r="E65">
+        <f>7.88+3.24</f>
+        <v>11.120000000000001</v>
+      </c>
+      <c r="F65">
+        <v>9.5</v>
+      </c>
+      <c r="G65">
+        <v>6.48</v>
+      </c>
+      <c r="J65">
+        <v>1.31</v>
+      </c>
+      <c r="K65">
+        <v>0.128</v>
+      </c>
+      <c r="L65">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="O65">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="R65">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D66">
+        <v>4.71</v>
+      </c>
+      <c r="E66">
+        <v>5.7</v>
+      </c>
+      <c r="F66">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="G66">
+        <v>4.51</v>
+      </c>
+      <c r="J66">
+        <v>0.7</v>
+      </c>
+      <c r="K66">
+        <v>0.122</v>
+      </c>
+      <c r="L66">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O66">
+        <v>0.125</v>
+      </c>
+      <c r="R66">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D67">
+        <v>7.88</v>
+      </c>
+      <c r="E67">
+        <v>7.08</v>
+      </c>
+      <c r="F67">
+        <v>5.64</v>
+      </c>
+      <c r="G67">
+        <v>5.43</v>
+      </c>
+      <c r="J67">
+        <v>0.67</v>
+      </c>
+      <c r="K67">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="O67">
+        <v>0.123</v>
+      </c>
+      <c r="R67">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D68">
+        <v>8.4</v>
+      </c>
+      <c r="E68">
+        <v>7.34</v>
+      </c>
+      <c r="F68">
+        <v>4.97</v>
+      </c>
+      <c r="G68">
+        <v>7.08</v>
+      </c>
+      <c r="J68">
+        <v>0.99</v>
+      </c>
+      <c r="K68">
+        <v>0.111</v>
+      </c>
+      <c r="L68">
+        <v>0.186</v>
+      </c>
+      <c r="O68">
+        <v>0.121</v>
+      </c>
+      <c r="R68">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D69">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E69">
+        <v>8.75</v>
+      </c>
+      <c r="F69">
+        <v>7.65</v>
+      </c>
+      <c r="G69">
+        <v>6.48</v>
+      </c>
+      <c r="J69">
+        <v>1.32</v>
+      </c>
+      <c r="K69">
+        <v>0.107</v>
+      </c>
+      <c r="L69">
+        <v>0.19</v>
+      </c>
+      <c r="O69">
+        <v>0.115</v>
+      </c>
+      <c r="R69">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D70">
+        <v>6.64</v>
+      </c>
+      <c r="E70">
+        <v>7.19</v>
+      </c>
+      <c r="J70">
+        <v>0.89</v>
+      </c>
+      <c r="K70">
+        <v>0.114</v>
+      </c>
+      <c r="L70">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="O70">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="R70">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D71">
+        <v>8.65</v>
+      </c>
+      <c r="E71">
+        <v>10.16</v>
+      </c>
+      <c r="F71">
+        <v>6.13</v>
+      </c>
+      <c r="G71">
+        <v>6.72</v>
+      </c>
+      <c r="J71">
+        <v>1.3</v>
+      </c>
+      <c r="K71">
+        <v>0.124</v>
+      </c>
+      <c r="L71">
+        <v>0.188</v>
+      </c>
+      <c r="O71">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="R71">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D72">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E72">
+        <v>8.83</v>
+      </c>
+      <c r="F72">
+        <v>6.98</v>
+      </c>
+      <c r="G72">
+        <v>6.17</v>
+      </c>
+      <c r="J72">
+        <v>1.07</v>
+      </c>
+      <c r="K72">
+        <v>0.11</v>
+      </c>
+      <c r="L72">
+        <v>0.188</v>
+      </c>
+      <c r="O72">
+        <v>0.122</v>
+      </c>
+      <c r="R72">
+        <v>0.121</v>
       </c>
     </row>
   </sheetData>

--- a/data/Measurements.xlsx
+++ b/data/Measurements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelia/github/Ritger-2019-Corynactis-measurements/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelia/Google Drive/Amelia Ritger/Projects/Corynactis/1. Intraspecific variation/Clonal differences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD912CEC-1881-4D43-9505-46CB93CEE688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07325CBE-10CB-0B43-A729-43F883B2E907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2220" windowWidth="27100" windowHeight="15840" xr2:uid="{3D5131ED-60B0-4786-9312-C0C09B3193C9}"/>
+    <workbookView xWindow="1060" yWindow="2220" windowWidth="37320" windowHeight="15700" xr2:uid="{3D5131ED-60B0-4786-9312-C0C09B3193C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -862,11 +862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF3A5C9-6405-4F9A-BB12-C87548FEAFC2}">
-  <dimension ref="A1:Z465"/>
+  <dimension ref="A1:Z477"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E453" sqref="E453"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S468" sqref="S468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17413,38 +17413,38 @@
         <v>3.12</v>
       </c>
       <c r="N383" s="4">
-        <v>1602</v>
+        <v>0.16020000000000001</v>
       </c>
       <c r="O383" s="4">
-        <v>7638</v>
+        <v>0.76380000000000003</v>
       </c>
       <c r="P383" s="4"/>
       <c r="R383" s="4">
-        <v>2578</v>
+        <v>0.25780000000000003</v>
       </c>
       <c r="S383" s="4">
-        <v>2679</v>
+        <v>0.26790000000000003</v>
       </c>
       <c r="T383" s="4">
-        <v>2581</v>
+        <v>0.2581</v>
       </c>
       <c r="U383" s="4">
-        <v>2573</v>
+        <v>0.25730000000000003</v>
       </c>
       <c r="V383" s="4">
-        <v>2564</v>
+        <v>0.25640000000000002</v>
       </c>
       <c r="W383" s="4">
-        <v>2559</v>
+        <v>0.25590000000000002</v>
       </c>
       <c r="X383" s="4">
-        <v>2556</v>
+        <v>0.25559999999999999</v>
       </c>
       <c r="Y383" s="4">
-        <v>2552</v>
+        <v>0.25520000000000004</v>
       </c>
       <c r="Z383" s="4">
-        <v>2551</v>
+        <v>0.25509999999999999</v>
       </c>
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.2">
@@ -17480,20 +17480,20 @@
         <v>1.75</v>
       </c>
       <c r="N384" s="4">
-        <v>1545</v>
+        <v>0.1545</v>
       </c>
       <c r="O384" s="4">
-        <v>2966</v>
+        <v>0.29660000000000003</v>
       </c>
       <c r="P384" s="4"/>
       <c r="R384" s="4">
-        <v>1799</v>
+        <v>0.1799</v>
       </c>
       <c r="S384" s="4">
-        <v>1822</v>
+        <v>0.1822</v>
       </c>
       <c r="T384" s="4">
-        <v>1800</v>
+        <v>0.18000000000000002</v>
       </c>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.2">
@@ -17527,23 +17527,23 @@
         <v>1.31</v>
       </c>
       <c r="N385" s="4">
-        <v>1739</v>
+        <v>0.1739</v>
       </c>
       <c r="O385" s="4">
-        <v>3128</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="P385" s="4"/>
       <c r="R385" s="4">
-        <v>1959</v>
+        <v>0.19590000000000002</v>
       </c>
       <c r="S385" s="4">
-        <v>1972</v>
+        <v>0.19720000000000001</v>
       </c>
       <c r="T385" s="4">
-        <v>1957</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="U385" s="4">
-        <v>1956</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.2">
@@ -17582,35 +17582,35 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="N386" s="4">
-        <v>2164</v>
+        <v>0.21640000000000001</v>
       </c>
       <c r="O386" s="4">
-        <v>6923</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="P386" s="4"/>
       <c r="R386" s="4">
-        <v>2907</v>
+        <v>0.29070000000000001</v>
       </c>
       <c r="S386" s="4">
-        <v>2955</v>
+        <v>0.29550000000000004</v>
       </c>
       <c r="T386" s="4">
-        <v>2910</v>
+        <v>0.29100000000000004</v>
       </c>
       <c r="U386" s="4">
-        <v>2902</v>
+        <v>0.29020000000000001</v>
       </c>
       <c r="V386" s="4">
-        <v>2892</v>
+        <v>0.28920000000000001</v>
       </c>
       <c r="W386" s="4">
-        <v>2886</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="X386" s="4">
-        <v>2883</v>
+        <v>0.2883</v>
       </c>
       <c r="Y386" s="4">
-        <v>2883</v>
+        <v>0.2883</v>
       </c>
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.2">
@@ -17650,26 +17650,26 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="N387" s="4">
-        <v>1950</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="O387" s="4">
-        <v>9749</v>
+        <v>0.9749000000000001</v>
       </c>
       <c r="P387" s="4"/>
       <c r="R387" s="4">
-        <v>3123</v>
+        <v>0.31230000000000002</v>
       </c>
       <c r="S387" s="4">
-        <v>3189</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="T387" s="4">
-        <v>3121</v>
+        <v>0.31209999999999999</v>
       </c>
       <c r="U387" s="4">
-        <v>3110</v>
+        <v>0.311</v>
       </c>
       <c r="V387" s="4">
-        <v>3099</v>
+        <v>0.30990000000000001</v>
       </c>
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.2">
@@ -17700,35 +17700,35 @@
         <v>19.87</v>
       </c>
       <c r="N388" s="4">
-        <v>1945</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="O388" s="4">
-        <v>15979</v>
+        <v>1.5979000000000001</v>
       </c>
       <c r="P388" s="4"/>
       <c r="R388" s="4">
-        <v>4552</v>
+        <v>0.45520000000000005</v>
       </c>
       <c r="S388" s="4">
-        <v>4505</v>
+        <v>0.45050000000000001</v>
       </c>
       <c r="T388" s="4">
-        <v>4491</v>
+        <v>0.4491</v>
       </c>
       <c r="U388" s="4">
-        <v>4479</v>
+        <v>0.44790000000000002</v>
       </c>
       <c r="V388" s="4">
-        <v>4462</v>
+        <v>0.44620000000000004</v>
       </c>
       <c r="W388" s="4">
-        <v>4457</v>
+        <v>0.44570000000000004</v>
       </c>
       <c r="X388" s="4">
-        <v>4451</v>
+        <v>0.4451</v>
       </c>
       <c r="Y388" s="4">
-        <v>4450</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.2">
@@ -17766,20 +17766,20 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="N389" s="4">
-        <v>1813</v>
+        <v>0.18130000000000002</v>
       </c>
       <c r="O389" s="4">
-        <v>4242</v>
+        <v>0.42420000000000002</v>
       </c>
       <c r="P389" s="4"/>
       <c r="R389" s="4">
-        <v>2234</v>
+        <v>0.22340000000000002</v>
       </c>
       <c r="S389" s="4">
-        <v>2226</v>
+        <v>0.22260000000000002</v>
       </c>
       <c r="T389" s="4">
-        <v>2226</v>
+        <v>0.22260000000000002</v>
       </c>
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.2">
@@ -17813,20 +17813,20 @@
         <v>1.32</v>
       </c>
       <c r="N390" s="4">
-        <v>1584</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="O390" s="4">
-        <v>2367</v>
+        <v>0.23670000000000002</v>
       </c>
       <c r="P390" s="4"/>
       <c r="R390" s="4">
-        <v>1714</v>
+        <v>0.1714</v>
       </c>
       <c r="S390" s="4">
-        <v>1711</v>
+        <v>0.1711</v>
       </c>
       <c r="T390" s="4">
-        <v>1712</v>
+        <v>0.17120000000000002</v>
       </c>
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.2">
@@ -17860,23 +17860,23 @@
         <v>1.23</v>
       </c>
       <c r="N391" s="4">
-        <v>1462</v>
+        <v>0.1462</v>
       </c>
       <c r="O391" s="4">
-        <v>2129</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="P391" s="4"/>
       <c r="R391" s="4">
-        <v>1591</v>
+        <v>0.15910000000000002</v>
       </c>
       <c r="S391" s="4">
-        <v>1589</v>
+        <v>0.15890000000000001</v>
       </c>
       <c r="T391" s="4">
-        <v>1587</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="U391" s="4">
-        <v>1588</v>
+        <v>0.1588</v>
       </c>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.2">
@@ -17917,20 +17917,20 @@
         <v>2.12</v>
       </c>
       <c r="N392" s="4">
-        <v>1965</v>
+        <v>0.19650000000000001</v>
       </c>
       <c r="O392" s="4">
-        <v>6446</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="P392" s="4"/>
       <c r="R392" s="4">
-        <v>2711</v>
+        <v>0.27110000000000001</v>
       </c>
       <c r="S392" s="4">
-        <v>2706</v>
+        <v>0.27060000000000001</v>
       </c>
       <c r="T392" s="4">
-        <v>2705</v>
+        <v>0.27050000000000002</v>
       </c>
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.2">
@@ -17964,23 +17964,23 @@
         <v>3.54</v>
       </c>
       <c r="N393" s="4">
-        <v>1686</v>
+        <v>0.1686</v>
       </c>
       <c r="O393" s="4">
-        <v>11590</v>
+        <v>1.159</v>
       </c>
       <c r="P393" s="4"/>
       <c r="R393" s="4">
-        <v>3258</v>
+        <v>0.32580000000000003</v>
       </c>
       <c r="S393" s="4">
-        <v>3255</v>
+        <v>0.32550000000000001</v>
       </c>
       <c r="T393" s="4">
-        <v>3251</v>
+        <v>0.3251</v>
       </c>
       <c r="U393" s="4">
-        <v>3250</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.2">
@@ -18009,17 +18009,17 @@
         <v>11.54</v>
       </c>
       <c r="N394" s="4">
-        <v>1721</v>
+        <v>0.1721</v>
       </c>
       <c r="O394" s="4">
-        <v>3131</v>
+        <v>0.31309999999999999</v>
       </c>
       <c r="P394" s="4"/>
       <c r="R394" s="4">
-        <v>1946</v>
+        <v>0.19460000000000002</v>
       </c>
       <c r="S394" s="4">
-        <v>1946</v>
+        <v>0.19460000000000002</v>
       </c>
       <c r="T394" s="4"/>
     </row>
@@ -18058,17 +18058,17 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="N395" s="4">
-        <v>2061</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="O395" s="4">
-        <v>3709</v>
+        <v>0.37090000000000001</v>
       </c>
       <c r="P395" s="4"/>
       <c r="R395" s="4">
-        <v>2309</v>
+        <v>0.23090000000000002</v>
       </c>
       <c r="S395" s="4">
-        <v>2309</v>
+        <v>0.23090000000000002</v>
       </c>
       <c r="T395" s="4"/>
     </row>
@@ -18100,23 +18100,23 @@
         <v>11.489999999999998</v>
       </c>
       <c r="N396" s="4">
-        <v>2028</v>
+        <v>0.20280000000000001</v>
       </c>
       <c r="O396" s="4">
-        <v>10603</v>
+        <v>1.0603</v>
       </c>
       <c r="P396" s="4"/>
       <c r="R396" s="4">
-        <v>3437</v>
+        <v>0.34370000000000001</v>
       </c>
       <c r="S396" s="4">
-        <v>3429</v>
+        <v>0.34290000000000004</v>
       </c>
       <c r="T396" s="4">
-        <v>3418</v>
+        <v>0.34179999999999999</v>
       </c>
       <c r="U396" s="4">
-        <v>3418</v>
+        <v>0.34179999999999999</v>
       </c>
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.2">
@@ -18147,23 +18147,23 @@
         <v>9.89</v>
       </c>
       <c r="N397" s="4">
-        <v>2039</v>
+        <v>0.2039</v>
       </c>
       <c r="O397" s="4">
-        <v>9139</v>
+        <v>0.91390000000000005</v>
       </c>
       <c r="P397" s="4"/>
       <c r="R397" s="4">
-        <v>3205</v>
+        <v>0.32050000000000001</v>
       </c>
       <c r="S397" s="4">
-        <v>3200</v>
+        <v>0.32</v>
       </c>
       <c r="T397" s="4">
-        <v>3189</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="U397" s="4">
-        <v>3188</v>
+        <v>0.31880000000000003</v>
       </c>
     </row>
     <row r="398" spans="1:25" x14ac:dyDescent="0.2">
@@ -18202,23 +18202,23 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="N398" s="4">
-        <v>1809</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="O398" s="4">
-        <v>4515</v>
+        <v>0.45150000000000001</v>
       </c>
       <c r="P398" s="4"/>
       <c r="R398" s="4">
-        <v>2237</v>
+        <v>0.22370000000000001</v>
       </c>
       <c r="S398" s="4">
-        <v>2234</v>
+        <v>0.22340000000000002</v>
       </c>
       <c r="T398" s="4">
-        <v>2232</v>
+        <v>0.22320000000000001</v>
       </c>
       <c r="U398" s="4">
-        <v>2232</v>
+        <v>0.22320000000000001</v>
       </c>
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.2">
@@ -18249,20 +18249,20 @@
         <v>11.440000000000001</v>
       </c>
       <c r="N399" s="4">
-        <v>2057</v>
+        <v>0.20570000000000002</v>
       </c>
       <c r="O399" s="4">
-        <v>5086</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="P399" s="4"/>
       <c r="R399" s="4">
-        <v>2506</v>
+        <v>0.25059999999999999</v>
       </c>
       <c r="S399" s="4">
-        <v>2502</v>
+        <v>0.25020000000000003</v>
       </c>
       <c r="T399" s="4">
-        <v>2503</v>
+        <v>0.25030000000000002</v>
       </c>
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.2">
@@ -18295,17 +18295,17 @@
         <v>8.7899999999999991</v>
       </c>
       <c r="N400" s="4">
-        <v>1910</v>
+        <v>0.191</v>
       </c>
       <c r="O400" s="4">
-        <v>3014</v>
+        <v>0.3014</v>
       </c>
       <c r="P400" s="4"/>
       <c r="R400" s="4">
-        <v>2048</v>
+        <v>0.20480000000000001</v>
       </c>
       <c r="S400" s="4">
-        <v>2049</v>
+        <v>0.2049</v>
       </c>
     </row>
     <row r="401" spans="1:22" x14ac:dyDescent="0.2">
@@ -18342,17 +18342,17 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="N401" s="4">
-        <v>1511</v>
+        <v>0.15110000000000001</v>
       </c>
       <c r="O401" s="4">
-        <v>2543</v>
+        <v>0.25430000000000003</v>
       </c>
       <c r="P401" s="4"/>
       <c r="R401" s="4">
-        <v>1660</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="S401" s="4">
-        <v>1660</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="402" spans="1:22" x14ac:dyDescent="0.2">
@@ -18394,26 +18394,26 @@
         <v>2.09</v>
       </c>
       <c r="N402" s="4">
-        <v>2094</v>
+        <v>0.2094</v>
       </c>
       <c r="O402" s="4">
-        <v>7936</v>
+        <v>0.79360000000000008</v>
       </c>
       <c r="P402" s="4"/>
       <c r="R402" s="4">
-        <v>3082</v>
+        <v>0.30820000000000003</v>
       </c>
       <c r="S402" s="4">
-        <v>3080</v>
+        <v>0.308</v>
       </c>
       <c r="T402" s="4">
-        <v>3072</v>
+        <v>0.30720000000000003</v>
       </c>
       <c r="U402" s="4">
-        <v>3075</v>
+        <v>0.3075</v>
       </c>
       <c r="V402" s="4">
-        <v>3078</v>
+        <v>0.30780000000000002</v>
       </c>
     </row>
     <row r="403" spans="1:22" x14ac:dyDescent="0.2">
@@ -18447,23 +18447,23 @@
         <v>11.879999999999999</v>
       </c>
       <c r="N403" s="4">
-        <v>1543</v>
+        <v>0.15430000000000002</v>
       </c>
       <c r="O403" s="4">
-        <v>3191</v>
+        <v>0.31909999999999999</v>
       </c>
       <c r="P403" s="4"/>
       <c r="R403" s="4">
-        <v>1779</v>
+        <v>0.1779</v>
       </c>
       <c r="S403" s="4">
-        <v>1783</v>
+        <v>0.17830000000000001</v>
       </c>
       <c r="T403" s="4">
-        <v>1777</v>
+        <v>0.1777</v>
       </c>
       <c r="U403" s="4">
-        <v>1780</v>
+        <v>0.17800000000000002</v>
       </c>
     </row>
     <row r="404" spans="1:22" x14ac:dyDescent="0.2">
@@ -18504,17 +18504,17 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="N404" s="4">
-        <v>1678</v>
+        <v>0.1678</v>
       </c>
       <c r="O404" s="4">
-        <v>8093</v>
+        <v>0.80930000000000002</v>
       </c>
       <c r="P404" s="4"/>
       <c r="R404" s="4">
-        <v>2614</v>
+        <v>0.26140000000000002</v>
       </c>
       <c r="S404" s="4">
-        <v>2613</v>
+        <v>0.26130000000000003</v>
       </c>
     </row>
     <row r="405" spans="1:22" x14ac:dyDescent="0.2">
@@ -18543,17 +18543,17 @@
         <v>17.89</v>
       </c>
       <c r="N405" s="4">
-        <v>1652</v>
+        <v>0.16520000000000001</v>
       </c>
       <c r="O405" s="4">
-        <v>8624</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="P405" s="4"/>
       <c r="R405" s="4">
-        <v>2617</v>
+        <v>0.26169999999999999</v>
       </c>
       <c r="S405" s="4">
-        <v>2618</v>
+        <v>0.26180000000000003</v>
       </c>
     </row>
     <row r="406" spans="1:22" x14ac:dyDescent="0.2">
@@ -18593,23 +18593,23 @@
         <v>2.33</v>
       </c>
       <c r="N406" s="4">
-        <v>1693</v>
+        <v>0.16930000000000001</v>
       </c>
       <c r="O406" s="4">
-        <v>10672</v>
+        <v>1.0672000000000001</v>
       </c>
       <c r="P406" s="4"/>
       <c r="R406" s="4">
-        <v>3188</v>
+        <v>0.31880000000000003</v>
       </c>
       <c r="S406" s="4">
-        <v>3185</v>
+        <v>0.31850000000000001</v>
       </c>
       <c r="T406" s="4">
-        <v>3178</v>
+        <v>0.31780000000000003</v>
       </c>
       <c r="U406" s="4">
-        <v>3185</v>
+        <v>0.31850000000000001</v>
       </c>
     </row>
     <row r="407" spans="1:22" x14ac:dyDescent="0.2">
@@ -18640,19 +18640,19 @@
         <v>13.93</v>
       </c>
       <c r="N407" s="4">
-        <v>1366</v>
+        <v>0.1366</v>
       </c>
       <c r="O407" s="4">
-        <v>4079</v>
+        <v>0.40790000000000004</v>
       </c>
       <c r="R407" s="4">
-        <v>1852</v>
+        <v>0.1852</v>
       </c>
       <c r="S407" s="4">
-        <v>1848</v>
+        <v>0.18480000000000002</v>
       </c>
       <c r="T407" s="4">
-        <v>1849</v>
+        <v>0.18490000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:22" x14ac:dyDescent="0.2">
@@ -18683,22 +18683,22 @@
         <v>14.129999999999999</v>
       </c>
       <c r="N408" s="4">
-        <v>1670</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="O408" s="4">
-        <v>9358</v>
+        <v>0.93580000000000008</v>
       </c>
       <c r="R408" s="4">
-        <v>2963</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="S408" s="4">
-        <v>2959</v>
+        <v>0.2959</v>
       </c>
       <c r="T408" s="4">
-        <v>2955</v>
+        <v>0.29550000000000004</v>
       </c>
       <c r="U408" s="4">
-        <v>2960</v>
+        <v>0.29600000000000004</v>
       </c>
     </row>
     <row r="409" spans="1:22" x14ac:dyDescent="0.2">
@@ -18729,22 +18729,22 @@
         <v>16.059999999999999</v>
       </c>
       <c r="N409" s="4">
-        <v>2206</v>
+        <v>0.22060000000000002</v>
       </c>
       <c r="O409" s="4">
-        <v>5984</v>
+        <v>0.59840000000000004</v>
       </c>
       <c r="R409" s="4">
-        <v>2833</v>
+        <v>0.2833</v>
       </c>
       <c r="S409" s="4">
-        <v>2830</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="T409" s="4">
-        <v>2826</v>
+        <v>0.28260000000000002</v>
       </c>
       <c r="U409" s="4">
-        <v>2827</v>
+        <v>0.28270000000000001</v>
       </c>
     </row>
     <row r="410" spans="1:22" x14ac:dyDescent="0.2">
@@ -18770,19 +18770,19 @@
         <v>19.130000000000003</v>
       </c>
       <c r="N410" s="4">
-        <v>1788</v>
+        <v>0.17880000000000001</v>
       </c>
       <c r="O410" s="4">
-        <v>7695</v>
+        <v>0.76950000000000007</v>
       </c>
       <c r="R410" s="4">
-        <v>2740</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="S410" s="4">
-        <v>2738</v>
+        <v>0.27379999999999999</v>
       </c>
       <c r="T410" s="4">
-        <v>2737</v>
+        <v>0.2737</v>
       </c>
     </row>
     <row r="411" spans="1:22" x14ac:dyDescent="0.2">
@@ -18808,19 +18808,19 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="N411" s="4">
-        <v>2274</v>
+        <v>0.22740000000000002</v>
       </c>
       <c r="O411" s="4">
-        <v>5402</v>
+        <v>0.54020000000000001</v>
       </c>
       <c r="R411" s="4">
-        <v>2763</v>
+        <v>0.27629999999999999</v>
       </c>
       <c r="S411" s="4">
-        <v>2759</v>
+        <v>0.27590000000000003</v>
       </c>
       <c r="T411" s="4">
-        <v>2760</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="412" spans="1:22" x14ac:dyDescent="0.2">
@@ -18861,19 +18861,19 @@
         <v>2.16</v>
       </c>
       <c r="N412" s="4">
-        <v>1754</v>
+        <v>0.1754</v>
       </c>
       <c r="O412" s="4">
-        <v>9305</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="R412" s="4">
-        <v>2960</v>
+        <v>0.29600000000000004</v>
       </c>
       <c r="S412" s="4">
-        <v>2958</v>
+        <v>0.29580000000000001</v>
       </c>
       <c r="T412" s="4">
-        <v>2957</v>
+        <v>0.29570000000000002</v>
       </c>
     </row>
     <row r="413" spans="1:22" x14ac:dyDescent="0.2">
@@ -18912,22 +18912,22 @@
         <v>1.35</v>
       </c>
       <c r="N413" s="4">
-        <v>1454</v>
+        <v>0.1454</v>
       </c>
       <c r="O413" s="4">
-        <v>4919</v>
+        <v>0.4919</v>
       </c>
       <c r="R413" s="4">
-        <v>1924</v>
+        <v>0.19240000000000002</v>
       </c>
       <c r="S413" s="4">
-        <v>1925</v>
+        <v>0.1925</v>
       </c>
       <c r="T413" s="4">
-        <v>1920</v>
+        <v>0.192</v>
       </c>
       <c r="U413" s="4">
-        <v>1924</v>
+        <v>0.19240000000000002</v>
       </c>
     </row>
     <row r="414" spans="1:22" x14ac:dyDescent="0.2">
@@ -18961,19 +18961,19 @@
         <v>10.96</v>
       </c>
       <c r="N414" s="4">
-        <v>1440</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="O414" s="4">
-        <v>2699</v>
+        <v>0.26990000000000003</v>
       </c>
       <c r="R414" s="4">
-        <v>1635</v>
+        <v>0.16350000000000001</v>
       </c>
       <c r="S414" s="4">
-        <v>1641</v>
+        <v>0.1641</v>
       </c>
       <c r="T414" s="4">
-        <v>1640</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="415" spans="1:22" x14ac:dyDescent="0.2">
@@ -19002,19 +19002,19 @@
         <v>21.78</v>
       </c>
       <c r="N415" s="4">
-        <v>1856</v>
+        <v>0.18560000000000001</v>
       </c>
       <c r="O415" s="4">
-        <v>5518</v>
+        <v>0.55180000000000007</v>
       </c>
       <c r="R415" s="4">
-        <v>2463</v>
+        <v>0.24630000000000002</v>
       </c>
       <c r="S415" s="4">
-        <v>2468</v>
+        <v>0.24680000000000002</v>
       </c>
       <c r="T415" s="4">
-        <v>2463</v>
+        <v>0.24630000000000002</v>
       </c>
     </row>
     <row r="416" spans="1:22" x14ac:dyDescent="0.2">
@@ -19045,19 +19045,19 @@
         <v>11.5</v>
       </c>
       <c r="N416" s="4">
-        <v>1838</v>
+        <v>0.18380000000000002</v>
       </c>
       <c r="O416" s="4">
-        <v>7358</v>
+        <v>0.73580000000000001</v>
       </c>
       <c r="R416" s="4">
-        <v>2705</v>
+        <v>0.27050000000000002</v>
       </c>
       <c r="S416" s="4">
-        <v>2711</v>
+        <v>0.27110000000000001</v>
       </c>
       <c r="T416" s="4">
-        <v>2704</v>
+        <v>0.27040000000000003</v>
       </c>
     </row>
     <row r="417" spans="1:23" x14ac:dyDescent="0.2">
@@ -19085,19 +19085,19 @@
         <v>17.559999999999999</v>
       </c>
       <c r="N417" s="4">
-        <v>1713</v>
+        <v>0.17130000000000001</v>
       </c>
       <c r="O417" s="4">
-        <v>5570</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="R417" s="4">
-        <v>2357</v>
+        <v>0.23570000000000002</v>
       </c>
       <c r="S417" s="4">
-        <v>2359</v>
+        <v>0.2359</v>
       </c>
       <c r="T417" s="4">
-        <v>2356</v>
+        <v>0.2356</v>
       </c>
     </row>
     <row r="418" spans="1:23" x14ac:dyDescent="0.2">
@@ -19125,16 +19125,16 @@
         <v>14.83</v>
       </c>
       <c r="N418" s="4">
-        <v>1870</v>
+        <v>0.187</v>
       </c>
       <c r="O418" s="4">
-        <v>3764</v>
+        <v>0.37640000000000001</v>
       </c>
       <c r="R418" s="4">
-        <v>2167</v>
+        <v>0.2167</v>
       </c>
       <c r="S418" s="4">
-        <v>2167</v>
+        <v>0.2167</v>
       </c>
     </row>
     <row r="419" spans="1:23" x14ac:dyDescent="0.2">
@@ -19163,19 +19163,19 @@
         <v>14.469999999999999</v>
       </c>
       <c r="N419" s="4">
-        <v>1695</v>
+        <v>0.16950000000000001</v>
       </c>
       <c r="O419" s="4">
-        <v>6068</v>
+        <v>0.60680000000000001</v>
       </c>
       <c r="R419" s="4">
-        <v>2366</v>
+        <v>0.2366</v>
       </c>
       <c r="S419" s="4">
-        <v>2368</v>
+        <v>0.23680000000000001</v>
       </c>
       <c r="T419" s="4">
-        <v>2365</v>
+        <v>0.23650000000000002</v>
       </c>
     </row>
     <row r="420" spans="1:23" x14ac:dyDescent="0.2">
@@ -19214,16 +19214,16 @@
         <v>0.73</v>
       </c>
       <c r="N420" s="4">
-        <v>2113</v>
+        <v>0.21130000000000002</v>
       </c>
       <c r="O420" s="4">
-        <v>3143</v>
+        <v>0.31430000000000002</v>
       </c>
       <c r="R420" s="4">
-        <v>2271</v>
+        <v>0.22710000000000002</v>
       </c>
       <c r="S420" s="4">
-        <v>2271</v>
+        <v>0.22710000000000002</v>
       </c>
     </row>
     <row r="421" spans="1:23" x14ac:dyDescent="0.2">
@@ -19259,22 +19259,22 @@
         <v>13.73</v>
       </c>
       <c r="N421" s="4">
-        <v>1643</v>
+        <v>0.1643</v>
       </c>
       <c r="O421" s="4">
-        <v>5366</v>
+        <v>0.53660000000000008</v>
       </c>
       <c r="R421" s="4">
-        <v>2217</v>
+        <v>0.22170000000000001</v>
       </c>
       <c r="S421" s="4">
-        <v>2221</v>
+        <v>0.22210000000000002</v>
       </c>
       <c r="T421" s="4">
-        <v>2214</v>
+        <v>0.22140000000000001</v>
       </c>
       <c r="U421" s="4">
-        <v>2113</v>
+        <v>0.21130000000000002</v>
       </c>
     </row>
     <row r="422" spans="1:23" x14ac:dyDescent="0.2">
@@ -19305,16 +19305,16 @@
         <v>20.009999999999998</v>
       </c>
       <c r="N422" s="4">
-        <v>1788</v>
+        <v>0.17880000000000001</v>
       </c>
       <c r="O422" s="4">
-        <v>8331</v>
+        <v>0.83310000000000006</v>
       </c>
       <c r="R422" s="4">
-        <v>2790</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="S422" s="4">
-        <v>2789</v>
+        <v>0.27890000000000004</v>
       </c>
     </row>
     <row r="423" spans="1:23" x14ac:dyDescent="0.2">
@@ -19345,19 +19345,19 @@
         <v>13.850000000000001</v>
       </c>
       <c r="N423" s="4">
-        <v>1527</v>
+        <v>0.1527</v>
       </c>
       <c r="O423" s="4">
-        <v>8686</v>
+        <v>0.86860000000000004</v>
       </c>
       <c r="R423" s="4">
-        <v>2772</v>
+        <v>0.2772</v>
       </c>
       <c r="S423" s="4">
-        <v>2763</v>
+        <v>0.27629999999999999</v>
       </c>
       <c r="T423" s="4">
-        <v>2764</v>
+        <v>0.27640000000000003</v>
       </c>
     </row>
     <row r="424" spans="1:23" x14ac:dyDescent="0.2">
@@ -19384,28 +19384,28 @@
         <v>19.649999999999999</v>
       </c>
       <c r="N424" s="4">
-        <v>1588</v>
+        <v>0.1588</v>
       </c>
       <c r="O424" s="4">
-        <v>9471</v>
+        <v>0.94710000000000005</v>
       </c>
       <c r="R424" s="4">
-        <v>2894</v>
+        <v>0.28939999999999999</v>
       </c>
       <c r="S424" s="4">
-        <v>2895</v>
+        <v>0.28950000000000004</v>
       </c>
       <c r="T424" s="4">
-        <v>2886</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="U424" s="4">
-        <v>2884</v>
+        <v>0.28839999999999999</v>
       </c>
       <c r="V424" s="4">
-        <v>2880</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="W424" s="4">
-        <v>2879</v>
+        <v>0.28789999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:23" x14ac:dyDescent="0.2">
@@ -19432,19 +19432,19 @@
         <v>12.58</v>
       </c>
       <c r="N425" s="4">
-        <v>2149</v>
+        <v>0.21490000000000001</v>
       </c>
       <c r="O425" s="4">
-        <v>4844</v>
+        <v>0.4844</v>
       </c>
       <c r="R425" s="4">
-        <v>2571</v>
+        <v>0.2571</v>
       </c>
       <c r="S425" s="4">
-        <v>2567</v>
+        <v>0.25670000000000004</v>
       </c>
       <c r="T425" s="4">
-        <v>2568</v>
+        <v>0.25680000000000003</v>
       </c>
     </row>
     <row r="426" spans="1:23" x14ac:dyDescent="0.2">
@@ -19470,20 +19470,20 @@
         <v>11.07</v>
       </c>
       <c r="N426" s="4">
-        <v>1777</v>
+        <v>0.1777</v>
       </c>
       <c r="O426" s="4">
-        <v>3257</v>
+        <v>0.32569999999999999</v>
       </c>
       <c r="R426" s="4"/>
       <c r="S426" s="4">
-        <v>1999</v>
+        <v>0.19990000000000002</v>
       </c>
       <c r="T426" s="4">
-        <v>1995</v>
+        <v>0.19950000000000001</v>
       </c>
       <c r="U426">
-        <v>1995</v>
+        <v>0.19950000000000001</v>
       </c>
     </row>
     <row r="427" spans="1:23" x14ac:dyDescent="0.2">
@@ -19520,16 +19520,16 @@
         <v>13.3</v>
       </c>
       <c r="N427" s="4">
-        <v>1690</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="O427" s="4">
-        <v>3772</v>
+        <v>0.37720000000000004</v>
       </c>
       <c r="R427" s="4">
-        <v>2031</v>
+        <v>0.2031</v>
       </c>
       <c r="S427" s="4">
-        <v>2031</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="428" spans="1:23" x14ac:dyDescent="0.2">
@@ -19559,19 +19559,19 @@
         <v>7.42</v>
       </c>
       <c r="N428" s="4">
-        <v>1907</v>
+        <v>0.19070000000000001</v>
       </c>
       <c r="O428" s="4">
-        <v>6994</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="R428" s="4">
-        <v>2807</v>
+        <v>0.28070000000000001</v>
       </c>
       <c r="S428" s="4">
-        <v>2798</v>
+        <v>0.27979999999999999</v>
       </c>
       <c r="T428" s="4">
-        <v>2798</v>
+        <v>0.27979999999999999</v>
       </c>
     </row>
     <row r="429" spans="1:23" x14ac:dyDescent="0.2">
@@ -19600,19 +19600,19 @@
         <v>12.94</v>
       </c>
       <c r="N429" s="4">
-        <v>1764</v>
+        <v>0.1764</v>
       </c>
       <c r="O429" s="4">
-        <v>7303</v>
+        <v>0.73030000000000006</v>
       </c>
       <c r="R429" s="4">
-        <v>2642</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="S429" s="4">
-        <v>2635</v>
+        <v>0.26350000000000001</v>
       </c>
       <c r="T429" s="4">
-        <v>2635</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="430" spans="1:23" x14ac:dyDescent="0.2">
@@ -19638,19 +19638,19 @@
         <v>13.530000000000001</v>
       </c>
       <c r="N430" s="4">
-        <v>1721</v>
+        <v>0.1721</v>
       </c>
       <c r="O430" s="4">
-        <v>4610</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="R430" s="4">
-        <v>2157</v>
+        <v>0.2157</v>
       </c>
       <c r="S430" s="4">
-        <v>2154</v>
+        <v>0.21540000000000001</v>
       </c>
       <c r="T430" s="4">
-        <v>2155</v>
+        <v>0.2155</v>
       </c>
     </row>
     <row r="431" spans="1:23" x14ac:dyDescent="0.2">
@@ -19676,19 +19676,19 @@
         <v>12.39</v>
       </c>
       <c r="N431" s="4">
-        <v>1504</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="O431" s="4">
-        <v>3747</v>
+        <v>0.37470000000000003</v>
       </c>
       <c r="R431" s="4">
-        <v>1839</v>
+        <v>0.18390000000000001</v>
       </c>
       <c r="S431" s="4">
-        <v>1836</v>
+        <v>0.18360000000000001</v>
       </c>
       <c r="T431" s="4">
-        <v>1836</v>
+        <v>0.18360000000000001</v>
       </c>
     </row>
     <row r="432" spans="1:23" x14ac:dyDescent="0.2">
@@ -19715,19 +19715,19 @@
         <v>11.18</v>
       </c>
       <c r="N432" s="4">
-        <v>1848</v>
+        <v>0.18480000000000002</v>
       </c>
       <c r="O432" s="4">
-        <v>4666</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="R432" s="4">
-        <v>2270</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="S432" s="4">
-        <v>2268</v>
+        <v>0.2268</v>
       </c>
       <c r="T432" s="4">
-        <v>2267</v>
+        <v>0.22670000000000001</v>
       </c>
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.2">
@@ -19757,25 +19757,25 @@
         <v>17</v>
       </c>
       <c r="N433" s="4">
-        <v>1808</v>
+        <v>0.18080000000000002</v>
       </c>
       <c r="O433" s="4">
-        <v>5137</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="R433" s="4">
-        <v>2358</v>
+        <v>0.23580000000000001</v>
       </c>
       <c r="S433" s="4">
-        <v>2349</v>
+        <v>0.2349</v>
       </c>
       <c r="T433" s="4">
-        <v>2354</v>
+        <v>0.2354</v>
       </c>
       <c r="U433" s="4">
-        <v>2347</v>
+        <v>0.23470000000000002</v>
       </c>
       <c r="V433" s="4">
-        <v>2348</v>
+        <v>0.23480000000000001</v>
       </c>
     </row>
     <row r="434" spans="1:22" x14ac:dyDescent="0.2">
@@ -19802,19 +19802,19 @@
         <v>14.25</v>
       </c>
       <c r="N434" s="4">
-        <v>1728</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="O434" s="4">
-        <v>5100</v>
+        <v>0.51</v>
       </c>
       <c r="R434" s="4">
-        <v>2260</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="S434" s="4">
-        <v>2257</v>
+        <v>0.22570000000000001</v>
       </c>
       <c r="T434" s="4">
-        <v>2257</v>
+        <v>0.22570000000000001</v>
       </c>
     </row>
     <row r="435" spans="1:22" x14ac:dyDescent="0.2">
@@ -19853,16 +19853,16 @@
         <v>1.46</v>
       </c>
       <c r="N435" s="4">
-        <v>2330</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="O435" s="4">
-        <v>4912</v>
+        <v>0.49120000000000003</v>
       </c>
       <c r="R435" s="4">
-        <v>2711</v>
+        <v>0.27110000000000001</v>
       </c>
       <c r="S435" s="4">
-        <v>2712</v>
+        <v>0.2712</v>
       </c>
     </row>
     <row r="436" spans="1:22" x14ac:dyDescent="0.2">
@@ -19896,19 +19896,19 @@
         <v>12.61</v>
       </c>
       <c r="N436" s="4">
-        <v>2129</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="O436" s="4">
-        <v>3370</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="R436" s="4">
-        <v>2320</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="S436" s="4">
-        <v>2318</v>
+        <v>0.23180000000000001</v>
       </c>
       <c r="T436" s="4">
-        <v>2318</v>
+        <v>0.23180000000000001</v>
       </c>
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.2">
@@ -19942,16 +19942,16 @@
         <v>10.45</v>
       </c>
       <c r="N437" s="4">
-        <v>2292</v>
+        <v>0.22920000000000001</v>
       </c>
       <c r="O437" s="4">
-        <v>3978</v>
+        <v>0.39780000000000004</v>
       </c>
       <c r="R437" s="4">
-        <v>2561</v>
+        <v>0.25609999999999999</v>
       </c>
       <c r="S437" s="4">
-        <v>2560</v>
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="438" spans="1:22" x14ac:dyDescent="0.2">
@@ -19978,16 +19978,16 @@
         <v>10.7</v>
       </c>
       <c r="N438" s="4">
-        <v>1612</v>
+        <v>0.16120000000000001</v>
       </c>
       <c r="O438" s="4">
-        <v>4114</v>
+        <v>0.41140000000000004</v>
       </c>
       <c r="R438" s="4">
-        <v>1981</v>
+        <v>0.1981</v>
       </c>
       <c r="S438" s="4">
-        <v>1981</v>
+        <v>0.1981</v>
       </c>
     </row>
     <row r="439" spans="1:22" x14ac:dyDescent="0.2">
@@ -20020,16 +20020,16 @@
         <v>9.1300000000000008</v>
       </c>
       <c r="N439" s="4">
-        <v>2023</v>
+        <v>0.20230000000000001</v>
       </c>
       <c r="O439" s="4">
-        <v>2713</v>
+        <v>0.27129999999999999</v>
       </c>
       <c r="R439" s="4">
-        <v>2152</v>
+        <v>0.2152</v>
       </c>
       <c r="S439" s="4">
-        <v>2151</v>
+        <v>0.21510000000000001</v>
       </c>
     </row>
     <row r="440" spans="1:22" x14ac:dyDescent="0.2">
@@ -20062,19 +20062,19 @@
         <v>6.99</v>
       </c>
       <c r="N440" s="4">
-        <v>1666</v>
+        <v>0.1666</v>
       </c>
       <c r="O440" s="4">
-        <v>2166</v>
+        <v>0.21660000000000001</v>
       </c>
       <c r="R440" s="4">
-        <v>1753</v>
+        <v>0.17530000000000001</v>
       </c>
       <c r="S440" s="4">
-        <v>1756</v>
+        <v>0.17560000000000001</v>
       </c>
       <c r="T440" s="4">
-        <v>1756</v>
+        <v>0.17560000000000001</v>
       </c>
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.2">
@@ -20108,19 +20108,19 @@
         <v>12.52</v>
       </c>
       <c r="N441" s="4">
-        <v>1496</v>
+        <v>0.14960000000000001</v>
       </c>
       <c r="O441" s="4">
-        <v>3315</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="R441" s="4">
-        <v>1775</v>
+        <v>0.17750000000000002</v>
       </c>
       <c r="S441" s="4">
-        <v>1773</v>
+        <v>0.17730000000000001</v>
       </c>
       <c r="T441" s="4">
-        <v>1772</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.2">
@@ -20153,19 +20153,19 @@
         <v>7.8</v>
       </c>
       <c r="N442" s="4">
-        <v>1698</v>
+        <v>0.16980000000000001</v>
       </c>
       <c r="O442" s="4">
-        <v>2400</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="R442" s="4">
-        <v>1817</v>
+        <v>0.1817</v>
       </c>
       <c r="S442" s="4">
-        <v>1822</v>
+        <v>0.1822</v>
       </c>
       <c r="T442" s="4">
-        <v>1822</v>
+        <v>0.1822</v>
       </c>
     </row>
     <row r="443" spans="1:22" x14ac:dyDescent="0.2">
@@ -20199,16 +20199,16 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="N443" s="4">
-        <v>2485</v>
+        <v>0.2485</v>
       </c>
       <c r="O443" s="4">
-        <v>3973</v>
+        <v>0.39730000000000004</v>
       </c>
       <c r="R443" s="4">
-        <v>2725</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="S443" s="4">
-        <v>2726</v>
+        <v>0.27260000000000001</v>
       </c>
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.2">
@@ -20234,19 +20234,19 @@
         <v>15.07</v>
       </c>
       <c r="N444" s="4">
-        <v>2363</v>
+        <v>0.23630000000000001</v>
       </c>
       <c r="O444" s="4">
-        <v>4448</v>
+        <v>0.44480000000000003</v>
       </c>
       <c r="R444" s="4">
-        <v>2676</v>
+        <v>0.2676</v>
       </c>
       <c r="S444" s="4">
-        <v>2678</v>
+        <v>0.26780000000000004</v>
       </c>
       <c r="T444" s="4">
-        <v>2678</v>
+        <v>0.26780000000000004</v>
       </c>
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.2">
@@ -20280,16 +20280,16 @@
         <v>8.89</v>
       </c>
       <c r="N445" s="4">
-        <v>2076</v>
+        <v>0.20760000000000001</v>
       </c>
       <c r="O445" s="4">
-        <v>3148</v>
+        <v>0.31480000000000002</v>
       </c>
       <c r="R445" s="4">
-        <v>2253</v>
+        <v>0.2253</v>
       </c>
       <c r="S445" s="4">
-        <v>2253</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.2">
@@ -20324,16 +20324,16 @@
         <v>11.54</v>
       </c>
       <c r="N446" s="4">
-        <v>1750</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="O446" s="4">
-        <v>3482</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="R446" s="4">
-        <v>2017</v>
+        <v>0.20170000000000002</v>
       </c>
       <c r="S446" s="4">
-        <v>2016</v>
+        <v>0.2016</v>
       </c>
     </row>
     <row r="447" spans="1:22" x14ac:dyDescent="0.2">
@@ -20369,16 +20369,16 @@
         <v>12.059999999999999</v>
       </c>
       <c r="N447" s="4">
-        <v>2038</v>
+        <v>0.20380000000000001</v>
       </c>
       <c r="O447" s="4">
-        <v>5931</v>
+        <v>0.59310000000000007</v>
       </c>
       <c r="R447" s="4">
-        <v>2723</v>
+        <v>0.27229999999999999</v>
       </c>
       <c r="S447" s="4">
-        <v>2723</v>
+        <v>0.27229999999999999</v>
       </c>
     </row>
     <row r="448" spans="1:22" x14ac:dyDescent="0.2">
@@ -20404,16 +20404,16 @@
         <v>9.57</v>
       </c>
       <c r="N448" s="4">
-        <v>2266</v>
+        <v>0.22660000000000002</v>
       </c>
       <c r="O448" s="4">
-        <v>3912</v>
+        <v>0.39119999999999999</v>
       </c>
       <c r="R448" s="4">
-        <v>2533</v>
+        <v>0.25330000000000003</v>
       </c>
       <c r="S448" s="4">
-        <v>2534</v>
+        <v>0.25340000000000001</v>
       </c>
     </row>
     <row r="449" spans="1:23" x14ac:dyDescent="0.2">
@@ -20449,16 +20449,16 @@
         <v>1.62</v>
       </c>
       <c r="N449" s="4">
-        <v>1767</v>
+        <v>0.1767</v>
       </c>
       <c r="O449" s="4">
-        <v>4102</v>
+        <v>0.41020000000000001</v>
       </c>
       <c r="R449" s="4">
-        <v>2121</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="S449" s="4">
-        <v>2120</v>
+        <v>0.21200000000000002</v>
       </c>
     </row>
     <row r="450" spans="1:23" x14ac:dyDescent="0.2">
@@ -20488,16 +20488,16 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="N450" s="4">
-        <v>2394</v>
+        <v>0.2394</v>
       </c>
       <c r="O450" s="4">
-        <v>5565</v>
+        <v>0.55649999999999999</v>
       </c>
       <c r="R450" s="4">
-        <v>2972</v>
+        <v>0.29720000000000002</v>
       </c>
       <c r="S450" s="4">
-        <v>2671</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="451" spans="1:23" x14ac:dyDescent="0.2">
@@ -20523,16 +20523,16 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="N451" s="4">
-        <v>1535</v>
+        <v>0.1535</v>
       </c>
       <c r="O451" s="4">
-        <v>2448</v>
+        <v>0.24480000000000002</v>
       </c>
       <c r="R451" s="4">
-        <v>1678</v>
+        <v>0.1678</v>
       </c>
       <c r="S451" s="4">
-        <v>1678</v>
+        <v>0.1678</v>
       </c>
     </row>
     <row r="452" spans="1:23" x14ac:dyDescent="0.2">
@@ -20562,16 +20562,16 @@
         <v>11.5</v>
       </c>
       <c r="N452" s="4">
-        <v>1671</v>
+        <v>0.1671</v>
       </c>
       <c r="O452" s="4">
-        <v>4731</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="R452" s="4">
-        <v>2112</v>
+        <v>0.2112</v>
       </c>
       <c r="S452" s="4">
-        <v>2116</v>
+        <v>0.21160000000000001</v>
       </c>
     </row>
     <row r="453" spans="1:23" x14ac:dyDescent="0.2">
@@ -20607,22 +20607,22 @@
         <v>2.25</v>
       </c>
       <c r="N453" s="4">
-        <v>1402</v>
+        <v>0.14020000000000002</v>
       </c>
       <c r="O453" s="4">
-        <v>7048</v>
+        <v>0.70479999999999998</v>
       </c>
       <c r="Q453">
-        <v>2246</v>
+        <v>0.22460000000000002</v>
       </c>
       <c r="R453" s="4">
-        <v>2248</v>
+        <v>0.2248</v>
       </c>
       <c r="S453" s="4">
-        <v>2244</v>
+        <v>0.22440000000000002</v>
       </c>
       <c r="U453">
-        <v>2243</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="454" spans="1:23" x14ac:dyDescent="0.2">
@@ -20658,28 +20658,28 @@
         <v>1.68</v>
       </c>
       <c r="N454" s="4">
-        <v>1672</v>
+        <v>0.16720000000000002</v>
       </c>
       <c r="O454" s="4">
-        <v>6803</v>
+        <v>0.68030000000000002</v>
       </c>
       <c r="Q454">
-        <v>2519</v>
+        <v>0.25190000000000001</v>
       </c>
       <c r="R454" s="4">
-        <v>2512</v>
+        <v>0.25120000000000003</v>
       </c>
       <c r="S454" s="4">
-        <v>2506</v>
+        <v>0.25059999999999999</v>
       </c>
       <c r="U454">
-        <v>2501</v>
+        <v>0.25009999999999999</v>
       </c>
       <c r="V454">
-        <v>2495</v>
+        <v>0.2495</v>
       </c>
       <c r="W454">
-        <v>2494</v>
+        <v>0.24940000000000001</v>
       </c>
     </row>
     <row r="455" spans="1:23" x14ac:dyDescent="0.2">
@@ -20714,25 +20714,25 @@
         <v>7.09</v>
       </c>
       <c r="N455" s="4">
-        <v>1834</v>
+        <v>0.18340000000000001</v>
       </c>
       <c r="O455" s="4">
-        <v>3649</v>
+        <v>0.3649</v>
       </c>
       <c r="Q455">
-        <v>2131</v>
+        <v>0.21310000000000001</v>
       </c>
       <c r="R455" s="4">
-        <v>2129</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="S455" s="4">
-        <v>2127</v>
+        <v>0.2127</v>
       </c>
       <c r="U455">
-        <v>2124</v>
+        <v>0.21240000000000001</v>
       </c>
       <c r="V455">
-        <v>2123</v>
+        <v>0.21230000000000002</v>
       </c>
     </row>
     <row r="456" spans="1:23" x14ac:dyDescent="0.2">
@@ -20760,19 +20760,19 @@
         <v>20.91</v>
       </c>
       <c r="N456" s="4">
-        <v>1869</v>
+        <v>0.18690000000000001</v>
       </c>
       <c r="O456" s="4">
-        <v>8017</v>
+        <v>0.80170000000000008</v>
       </c>
       <c r="Q456">
-        <v>2872</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="R456" s="4">
-        <v>2868</v>
+        <v>0.2868</v>
       </c>
       <c r="S456" s="4">
-        <v>2871</v>
+        <v>0.28710000000000002</v>
       </c>
     </row>
     <row r="457" spans="1:23" x14ac:dyDescent="0.2">
@@ -20796,19 +20796,19 @@
         <v>10.57</v>
       </c>
       <c r="N457" s="4">
-        <v>1784</v>
+        <v>0.1784</v>
       </c>
       <c r="O457" s="4">
-        <v>3013</v>
+        <v>0.30130000000000001</v>
       </c>
       <c r="Q457">
-        <v>1993</v>
+        <v>0.1993</v>
       </c>
       <c r="R457" s="4">
-        <v>988</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="S457" s="4">
-        <v>1988</v>
+        <v>0.1988</v>
       </c>
     </row>
     <row r="458" spans="1:23" x14ac:dyDescent="0.2">
@@ -20850,22 +20850,22 @@
         <v>1.63</v>
       </c>
       <c r="N458" s="4">
-        <v>2156</v>
+        <v>0.21560000000000001</v>
       </c>
       <c r="O458" s="4">
-        <v>7859</v>
+        <v>0.78590000000000004</v>
       </c>
       <c r="Q458">
-        <v>3047</v>
+        <v>0.30470000000000003</v>
       </c>
       <c r="R458" s="4">
-        <v>3040</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="S458" s="4">
-        <v>3036</v>
+        <v>0.30360000000000004</v>
       </c>
       <c r="U458">
-        <v>3035</v>
+        <v>0.30349999999999999</v>
       </c>
     </row>
     <row r="459" spans="1:23" x14ac:dyDescent="0.2">
@@ -20891,28 +20891,28 @@
         <v>13.71</v>
       </c>
       <c r="N459" s="4">
-        <v>1625</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="O459" s="4">
-        <v>9153</v>
+        <v>0.9153</v>
       </c>
       <c r="Q459">
-        <v>2836</v>
+        <v>0.28360000000000002</v>
       </c>
       <c r="R459" s="4">
-        <v>2822</v>
+        <v>0.28220000000000001</v>
       </c>
       <c r="S459" s="4">
-        <v>2816</v>
+        <v>0.28160000000000002</v>
       </c>
       <c r="U459">
-        <v>2805</v>
+        <v>0.28050000000000003</v>
       </c>
       <c r="V459">
-        <v>2802</v>
+        <v>0.2802</v>
       </c>
       <c r="W459">
-        <v>2802</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="460" spans="1:23" x14ac:dyDescent="0.2">
@@ -20937,19 +20937,19 @@
         <v>10.88</v>
       </c>
       <c r="N460" s="4">
-        <v>1660</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="O460" s="4">
-        <v>5213</v>
+        <v>0.52129999999999999</v>
       </c>
       <c r="Q460">
-        <v>2281</v>
+        <v>0.2281</v>
       </c>
       <c r="R460" s="4">
-        <v>2273</v>
+        <v>0.2273</v>
       </c>
       <c r="S460" s="4">
-        <v>2272</v>
+        <v>0.22720000000000001</v>
       </c>
     </row>
     <row r="461" spans="1:23" x14ac:dyDescent="0.2">
@@ -20979,19 +20979,19 @@
         <v>16.22</v>
       </c>
       <c r="N461" s="4">
-        <v>1700</v>
+        <v>0.17</v>
       </c>
       <c r="O461" s="4">
-        <v>7313</v>
+        <v>0.73130000000000006</v>
       </c>
       <c r="Q461">
-        <v>2514</v>
+        <v>0.25140000000000001</v>
       </c>
       <c r="R461" s="4">
-        <v>2504</v>
+        <v>0.25040000000000001</v>
       </c>
       <c r="S461" s="4">
-        <v>2505</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="462" spans="1:23" x14ac:dyDescent="0.2">
@@ -21022,28 +21022,28 @@
         <v>17.259999999999998</v>
       </c>
       <c r="N462" s="4">
-        <v>1886</v>
+        <v>0.18860000000000002</v>
       </c>
       <c r="O462" s="4">
-        <v>8424</v>
+        <v>0.84240000000000004</v>
       </c>
       <c r="Q462">
-        <v>2916</v>
+        <v>0.29160000000000003</v>
       </c>
       <c r="R462" s="4">
-        <v>2910</v>
+        <v>0.29100000000000004</v>
       </c>
       <c r="S462" s="4">
-        <v>2906</v>
+        <v>0.29060000000000002</v>
       </c>
       <c r="U462">
-        <v>2902</v>
+        <v>0.29020000000000001</v>
       </c>
       <c r="V462">
-        <v>2897</v>
+        <v>0.28970000000000001</v>
       </c>
       <c r="W462">
-        <v>2897</v>
+        <v>0.28970000000000001</v>
       </c>
     </row>
     <row r="463" spans="1:23" x14ac:dyDescent="0.2">
@@ -21071,19 +21071,19 @@
         <v>11.86</v>
       </c>
       <c r="N463" s="4">
-        <v>1876</v>
+        <v>0.18760000000000002</v>
       </c>
       <c r="O463" s="4">
-        <v>6166</v>
+        <v>0.61660000000000004</v>
       </c>
       <c r="Q463">
-        <v>2431</v>
+        <v>0.24310000000000001</v>
       </c>
       <c r="R463" s="4">
-        <v>2425</v>
+        <v>0.24250000000000002</v>
       </c>
       <c r="S463" s="4">
-        <v>2425</v>
+        <v>0.24250000000000002</v>
       </c>
     </row>
     <row r="464" spans="1:23" x14ac:dyDescent="0.2">
@@ -21108,28 +21108,28 @@
         <v>9.31</v>
       </c>
       <c r="N464" s="4">
-        <v>1583</v>
+        <v>0.1583</v>
       </c>
       <c r="O464" s="4">
-        <v>5199</v>
+        <v>0.51990000000000003</v>
       </c>
       <c r="Q464">
-        <v>2143</v>
+        <v>0.21430000000000002</v>
       </c>
       <c r="R464" s="4">
-        <v>2140</v>
+        <v>0.21400000000000002</v>
       </c>
       <c r="S464" s="4">
-        <v>2137</v>
+        <v>0.2137</v>
       </c>
       <c r="U464">
-        <v>2134</v>
+        <v>0.21340000000000001</v>
       </c>
       <c r="V464">
-        <v>2131</v>
+        <v>0.21310000000000001</v>
       </c>
       <c r="W464">
-        <v>2132</v>
+        <v>0.2132</v>
       </c>
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.2">
@@ -21168,19 +21168,115 @@
         <v>1.68</v>
       </c>
       <c r="N465" s="4">
-        <v>1869</v>
+        <v>0.18690000000000001</v>
       </c>
       <c r="O465" s="4">
-        <v>3254</v>
+        <v>0.32540000000000002</v>
       </c>
       <c r="Q465">
-        <v>2052</v>
+        <v>0.20520000000000002</v>
       </c>
       <c r="R465" s="4">
-        <v>2051</v>
+        <v>0.2051</v>
       </c>
       <c r="S465" s="4">
-        <v>2051</v>
+        <v>0.2051</v>
+      </c>
+    </row>
+    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>84</v>
+      </c>
+      <c r="C466" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>85</v>
+      </c>
+      <c r="C467" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>86</v>
+      </c>
+      <c r="C468" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>87</v>
+      </c>
+      <c r="C469" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>88</v>
+      </c>
+      <c r="C470" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>89</v>
+      </c>
+      <c r="C471" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>90</v>
+      </c>
+      <c r="C472" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>91</v>
+      </c>
+      <c r="C473" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>92</v>
+      </c>
+      <c r="C474" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>93</v>
+      </c>
+      <c r="C475" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>94</v>
+      </c>
+      <c r="C476" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>95</v>
+      </c>
+      <c r="C477" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/Measurements.xlsx
+++ b/data/Measurements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelia/Google Drive/Amelia Ritger/Projects/Corynactis/1. Intraspecific variation/Clonal differences/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelia/github/Ritger-2019-Corynactis-measurements/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07325CBE-10CB-0B43-A729-43F883B2E907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFD6BE5-812B-7347-A294-9D8CB1F8F67C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2220" windowWidth="37320" windowHeight="15700" xr2:uid="{3D5131ED-60B0-4786-9312-C0C09B3193C9}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="26060" windowHeight="15700" xr2:uid="{3D5131ED-60B0-4786-9312-C0C09B3193C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -862,11 +862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF3A5C9-6405-4F9A-BB12-C87548FEAFC2}">
-  <dimension ref="A1:Z477"/>
+  <dimension ref="A1:Z465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S468" sqref="S468"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G453" sqref="G453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20805,7 +20805,7 @@
         <v>0.1993</v>
       </c>
       <c r="R457" s="4">
-        <v>9.8799999999999999E-2</v>
+        <v>0.1988</v>
       </c>
       <c r="S457" s="4">
         <v>0.1988</v>
@@ -21181,102 +21181,6 @@
       </c>
       <c r="S465" s="4">
         <v>0.2051</v>
-      </c>
-    </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A466">
-        <v>84</v>
-      </c>
-      <c r="C466" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A467">
-        <v>85</v>
-      </c>
-      <c r="C467" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A468">
-        <v>86</v>
-      </c>
-      <c r="C468" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A469">
-        <v>87</v>
-      </c>
-      <c r="C469" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A470">
-        <v>88</v>
-      </c>
-      <c r="C470" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A471">
-        <v>89</v>
-      </c>
-      <c r="C471" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A472">
-        <v>90</v>
-      </c>
-      <c r="C472" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A473">
-        <v>91</v>
-      </c>
-      <c r="C473" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A474">
-        <v>92</v>
-      </c>
-      <c r="C474" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A475">
-        <v>93</v>
-      </c>
-      <c r="C475" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A476">
-        <v>94</v>
-      </c>
-      <c r="C476" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A477">
-        <v>95</v>
-      </c>
-      <c r="C477" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
